--- a/data/trans_bre/P08_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P08_2_R-Edad-trans_bre.xlsx
@@ -660,29 +660,27 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.666625750681913</v>
+        <v>-1.881362531717687</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5145946201928515</v>
+        <v>-0.4712976133811752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7385068687214553</v>
+        <v>0.9010479065666086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.426687682877584</v>
+        <v>-1.550382091630847</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5395970632116122</v>
+        <v>-0.5284850154563532</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2575813299814738</v>
+        <v>-0.2411320006180031</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1149903917796276</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.05789653636590308</v>
+      </c>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -692,25 +690,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.108018453903995</v>
+        <v>2.102420949206107</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.800184382665275</v>
+        <v>4.130307200151133</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.133996960559671</v>
+        <v>5.143448850172211</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.477978057113935</v>
+        <v>4.229438669231624</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.45045867949137</v>
+        <v>1.34695909186408</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.157011873834236</v>
+        <v>3.668634818660008</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>24.63338152771454</v>
+        <v>20.36454994192491</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -758,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2815886361023857</v>
+        <v>0.4509918352062002</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.823856244262595</v>
+        <v>-1.734354604887458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.8173477182293007</v>
+        <v>-0.6247821856049232</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.323340310350897</v>
+        <v>-4.260850974842589</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.006228034678761678</v>
+        <v>0.06258376188344303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3738371469434521</v>
+        <v>-0.3649449363513855</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2529203929036953</v>
+        <v>-0.1789416168588075</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8439047011455008</v>
+        <v>-0.8247652502386635</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.088092479054273</v>
+        <v>5.190871487561163</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.871532974124746</v>
+        <v>2.878672385411435</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.764264285018273</v>
+        <v>3.817529061345497</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1337100645773422</v>
+        <v>0.1086816435067071</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.331263990920661</v>
+        <v>2.578607359625236</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9681255869259263</v>
+        <v>1.032065771759127</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.000003349762681</v>
+        <v>2.106790452689286</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2329973914787426</v>
+        <v>0.2717861174797432</v>
       </c>
     </row>
     <row r="10">
@@ -858,28 +856,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2182534411161348</v>
+        <v>-0.2178848448834477</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.000417707997432</v>
+        <v>2.095660478675166</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8244976246603805</v>
+        <v>-0.7225341616663644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3638344634660224</v>
+        <v>-0.2002130552818413</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.03421117220929874</v>
+        <v>-0.03789731909425549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2442985580366862</v>
+        <v>0.2747850854615139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1512267295943995</v>
+        <v>-0.1164138658409441</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05509538034936613</v>
+        <v>-0.04649617574183623</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +888,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.205401242064968</v>
+        <v>4.84828754355898</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.602720855550095</v>
+        <v>7.921735886926578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.386008839473774</v>
+        <v>4.527193668569367</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.495077620750952</v>
+        <v>4.763260107761652</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.384534960081218</v>
+        <v>1.306527158078027</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.667247431885205</v>
+        <v>1.857578713051292</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.065603498834551</v>
+        <v>1.055379916506826</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.348270088868877</v>
+        <v>1.329304859320484</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +933,7 @@
         <v>2.63729727882263</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8921420943428876</v>
+        <v>0.8921420943428917</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6448992668825841</v>
@@ -947,7 +945,7 @@
         <v>0.2190334326320938</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.07831841340044782</v>
+        <v>0.07831841340044819</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.230158412807198</v>
+        <v>2.105363964575098</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.064472715577304</v>
+        <v>2.059523240475048</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.305208499318675</v>
+        <v>-0.9561705426801768</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.403514653614594</v>
+        <v>-2.397302998658198</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.17373597349931</v>
+        <v>0.1661958449450096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1501394870363352</v>
+        <v>0.1501102663972792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08849917252903265</v>
+        <v>-0.07188650192544109</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1774142865931497</v>
+        <v>-0.1812017594910048</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.37859281015646</v>
+        <v>10.24579401381022</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.29128993830676</v>
+        <v>10.32838976052161</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.547045193120103</v>
+        <v>6.756545054207029</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.032841151318511</v>
+        <v>3.961381387455093</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.291997439614304</v>
+        <v>1.269316598765858</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.220820948276757</v>
+        <v>1.162155334096543</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6484235923393904</v>
+        <v>0.6708248678228748</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4301811369267676</v>
+        <v>0.4178422432641449</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1033,7 @@
         <v>11.67955665412879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.020839624347009</v>
+        <v>5.020839624347017</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.246736158433522</v>
@@ -1047,7 +1045,7 @@
         <v>0.5763354104327783</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2424299175111014</v>
+        <v>0.2424299175111019</v>
       </c>
     </row>
     <row r="17">
@@ -1058,28 +1056,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2967268753105262</v>
+        <v>-0.1159766121034663</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.929623518542471</v>
+        <v>9.446475822534198</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.358944791871366</v>
+        <v>5.759196733934499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.801331567159943</v>
+        <v>0.5946333687617661</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.01402665417362116</v>
+        <v>-0.01830996531714051</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4326423641577522</v>
+        <v>0.3927879668071732</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2258392915730305</v>
+        <v>0.2323619740340278</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.03626284649577326</v>
+        <v>0.02744479057593965</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1088,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.54803016275931</v>
+        <v>12.28385590267511</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.55089998966436</v>
+        <v>21.97560546222754</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.49693255816148</v>
+        <v>17.68234773763669</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.800883170464981</v>
+        <v>9.356811540933151</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5791153809896422</v>
+        <v>0.5523134520883026</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.301593079247561</v>
+        <v>1.261789444147347</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.004657816705268</v>
+        <v>0.9888442227288329</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4849989714514812</v>
+        <v>0.5119344068302243</v>
       </c>
     </row>
     <row r="19">
@@ -1135,7 +1133,7 @@
         <v>13.75827556987938</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15.97826738644157</v>
+        <v>15.97826738644156</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7788302287031414</v>
@@ -1147,7 +1145,7 @@
         <v>0.4032633772204614</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.6322932952898616</v>
+        <v>0.6322932952898613</v>
       </c>
     </row>
     <row r="20">
@@ -1158,28 +1156,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>19.7676681175695</v>
+        <v>18.69414011279959</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.203783940243241</v>
+        <v>9.112330519581532</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.146397152128881</v>
+        <v>6.561231721915663</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10.40270578988827</v>
+        <v>11.05898761253427</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5006174618635656</v>
+        <v>0.4750706921789642</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1973122486530196</v>
+        <v>0.1937435113083503</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.166855087717977</v>
+        <v>0.1769042465697459</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3717437581160506</v>
+        <v>0.3998485022425105</v>
       </c>
     </row>
     <row r="21">
@@ -1190,28 +1188,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>34.39085973324661</v>
+        <v>33.24667961917555</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>25.48007801000239</v>
+        <v>25.55330033993002</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20.97250153238465</v>
+        <v>20.5703660075677</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.3834876412676</v>
+        <v>21.03157450421153</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.113728769518944</v>
+        <v>1.103451090164103</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6809072093429561</v>
+        <v>0.6868469415896283</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7002078196348953</v>
+        <v>0.685659404787508</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9084830088722596</v>
+        <v>0.9473535146898626</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1233,7 @@
         <v>14.3611956952838</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23.10450441726178</v>
+        <v>23.10450441726179</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.188502807549101</v>
@@ -1247,7 +1245,7 @@
         <v>0.2501163485628148</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.42454186050514</v>
+        <v>0.4245418605051403</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.910314279360193</v>
+        <v>4.675205483700666</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.477534938269358</v>
+        <v>5.162721895972195</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.079972611990014</v>
+        <v>6.293455403768919</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.64000643778027</v>
+        <v>17.38094009464668</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05599663648533186</v>
+        <v>0.06600441124109852</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07239726198397815</v>
+        <v>0.0702260345723931</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1157195497824296</v>
+        <v>0.1023920447627168</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2990237731170194</v>
+        <v>0.2981692036738354</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.78723593647656</v>
+        <v>20.09277450899432</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.01011143213235</v>
+        <v>19.74137488174123</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.25066854187885</v>
+        <v>21.88133277005789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28.81864022109669</v>
+        <v>28.77439629816858</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3158294296922632</v>
+        <v>0.3212401718071868</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3087590347917841</v>
+        <v>0.3069061258511848</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.396451312373496</v>
+        <v>0.4122676621802381</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.5849187365617995</v>
+        <v>0.5789064512179635</v>
       </c>
     </row>
     <row r="25">
@@ -1335,7 +1333,7 @@
         <v>8.320451130508893</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7.768964744570495</v>
+        <v>7.768964744570492</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6693104238200496</v>
@@ -1347,7 +1345,7 @@
         <v>0.5740574334782713</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.518629587188981</v>
+        <v>0.5186295871889809</v>
       </c>
     </row>
     <row r="26">
@@ -1358,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.439256752469781</v>
+        <v>7.54389862013191</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.197892889168376</v>
+        <v>8.186816755017551</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.286797378249366</v>
+        <v>6.36320138456722</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.159393598637308</v>
+        <v>6.148351841095705</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5049679638979461</v>
+        <v>0.508935301614335</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4944075712334139</v>
+        <v>0.499052479501356</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4075982669825868</v>
+        <v>0.4104967974531798</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3858316329503525</v>
+        <v>0.377152670873785</v>
       </c>
     </row>
     <row r="27">
@@ -1390,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.00858886029151</v>
+        <v>11.2264377045655</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.1392680499144</v>
+        <v>12.13153796160056</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.14693866133634</v>
+        <v>10.13705457835341</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.369227627359281</v>
+        <v>9.506548938008823</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8468909272518287</v>
+        <v>0.8542660554737598</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8223764634239844</v>
+        <v>0.827536058924621</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.745875438867125</v>
+        <v>0.732978808267177</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6677447195892574</v>
+        <v>0.6669315453576884</v>
       </c>
     </row>
     <row r="28">
